--- a/Data/1_preprocess/DIAGNOSTICO_CATEGORIAS.xlsx
+++ b/Data/1_preprocess/DIAGNOSTICO_CATEGORIAS.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B90"/>
+  <dimension ref="A1:B86"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -700,7 +700,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>ULTIMO_S&amp;P500_Index_index_pricing</t>
+          <t>PRICE_S&amp;P500_Index_index_pricing</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -712,7 +712,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>ULTIMO_NASDAQ_Composite_index_pricing</t>
+          <t>PRICE_NASDAQ_Composite_index_pricing</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -724,7 +724,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>ULTIMO_Russell_2000_index_pricing</t>
+          <t>PRICE_Russell_2000_index_pricing</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -736,7 +736,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>ULTIMO_FTSE_100_index_pricing</t>
+          <t>PRICE_FTSE_100_index_pricing</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -748,7 +748,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>ULTIMO_Nikkei_225_index_pricing</t>
+          <t>PRICE_Nikkei_225_index_pricing</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -760,7 +760,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>ULTIMO_DAX_30_index_pricing</t>
+          <t>PRICE_DAX_30_index_pricing</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -784,7 +784,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>ULTIMO_VIX_VolatilityIndex_index_pricing</t>
+          <t>PRICE_VIX_VolatilityIndex_index_pricing</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -820,7 +820,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>AAII_Bearish_AAII_Investor_Sentiment_consumer_confidence</t>
+          <t>PutCall_strike_Put_Call_Ratio_SPY_consumer_confidence</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -832,7 +832,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>AAII_Bull-Bear Spread_AAII_Investor_Sentiment_consumer_confidence</t>
+          <t>PutCall_bid_Put_Call_Ratio_SPY_consumer_confidence</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -844,7 +844,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>AAII_Bullish_AAII_Investor_Sentiment_consumer_confidence</t>
+          <t>PutCall_ask_Put_Call_Ratio_SPY_consumer_confidence</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -856,7 +856,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>PutCall_strike_Put_Call_Ratio_SPY_consumer_confidence</t>
+          <t>PutCall_vol_Put_Call_Ratio_SPY_consumer_confidence</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -868,7 +868,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>PutCall_bid_Put_Call_Ratio_SPY_consumer_confidence</t>
+          <t>PutCall_delta_Put_Call_Ratio_SPY_consumer_confidence</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -880,7 +880,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>PutCall_ask_Put_Call_Ratio_SPY_consumer_confidence</t>
+          <t>PutCall_gamma_Put_Call_Ratio_SPY_consumer_confidence</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -892,7 +892,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>PutCall_vol_Put_Call_Ratio_SPY_consumer_confidence</t>
+          <t>PutCall_theta_Put_Call_Ratio_SPY_consumer_confidence</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -904,7 +904,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>PutCall_delta_Put_Call_Ratio_SPY_consumer_confidence</t>
+          <t>PutCall_vega_Put_Call_Ratio_SPY_consumer_confidence</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -916,7 +916,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>PutCall_gamma_Put_Call_Ratio_SPY_consumer_confidence</t>
+          <t>PutCall_rho_Put_Call_Ratio_SPY_consumer_confidence</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -928,67 +928,67 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>PutCall_theta_Put_Call_Ratio_SPY_consumer_confidence</t>
+          <t>NFCI_Chicago_Fed_NFCI_leading_economic_index</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>consumer_confidence</t>
+          <t>economics</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>PutCall_vega_Put_Call_Ratio_SPY_consumer_confidence</t>
+          <t>ANFCI_Chicago_Fed_NFCI_leading_economic_index</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>consumer_confidence</t>
+          <t>economics</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>PutCall_rho_Put_Call_Ratio_SPY_consumer_confidence</t>
+          <t>Actual_US_ISM_Manufacturing_business_confidence</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>consumer_confidence</t>
+          <t>business_confidence</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>NFCI_Chicago_Fed_NFCI_leading_economic_index</t>
+          <t>Actual_US_ISM_Services_business_confidence</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>economics</t>
+          <t>business_confidence</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>ANFCI_Chicago_Fed_NFCI_leading_economic_index</t>
+          <t>Actual_US_Philly_Fed_Index_business_confidence</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>economics</t>
+          <t>business_confidence</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Actual_US_ISM_Manufacturing_business_confidence</t>
+          <t>Actual_France_Business_Climate_business_confidence</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -1000,7 +1000,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Actual_US_ISM_Services_business_confidence</t>
+          <t>Actual_EuroZone_Business_Climate_business_confidence</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -1012,91 +1012,91 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Actual_US_Philly_Fed_Index_business_confidence</t>
+          <t>Actual_US_Consumer_Confidence_consumer_confidence</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>business_confidence</t>
+          <t>consumer_confidence</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Actual_France_Business_Climate_business_confidence</t>
+          <t>Actual_China_PMI_Manufacturing_economics</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>business_confidence</t>
+          <t>economics</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Actual_EuroZone_Business_Climate_business_confidence</t>
+          <t>Actual_US_ConferenceBoard_LEI_leading_economic_index</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>business_confidence</t>
+          <t>economics</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Actual_US_Consumer_Confidence_consumer_confidence</t>
+          <t>Actual_Japan_Leading_Indicator_leading_economic_index</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>consumer_confidence</t>
+          <t>economics</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Actual_China_PMI_Manufacturing_economics</t>
+          <t>DGS10_US_10Y_Treasury_bond</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>economics</t>
+          <t>bond</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Actual_US_ConferenceBoard_LEI_leading_economic_index</t>
+          <t>DGS2_US_2Y_Treasury_bond</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>economics</t>
+          <t>bond</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Actual_Japan_Leading_Indicator_leading_economic_index</t>
+          <t>AAA_Corporate_Bond_AAA_Spread_bond</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>economics</t>
+          <t>bond</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>DGS10_US_10Y_Treasury_bond</t>
+          <t>BAA10YM_Corporate_Bond_BBB_Spread_bond</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -1108,55 +1108,55 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>DGS2_US_2Y_Treasury_bond</t>
+          <t>BAMLH0A0HYM2_High_Yield_Bond_Spread_bond</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>bond</t>
+          <t>economics</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>AAA_Corporate_Bond_AAA_Spread_bond</t>
+          <t>DNKSLRTCR03GPSAM_Denmark_Car_Registrations_MoM_car_registrations</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>bond</t>
+          <t>car_registrations</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>BAA10YM_Corporate_Bond_BBB_Spread_bond</t>
+          <t>USASLRTCR03GPSAM_US_Car_Registrations_MoM_car_registrations</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>bond</t>
+          <t>car_registrations</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>BAMLH0A0HYM2_High_Yield_Bond_Spread_bond</t>
+          <t>ZAFSLRTCR03GPSAM_SouthAfrica_Car_Registrations_MoM_car_registrations</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>economics</t>
+          <t>car_registrations</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>DNKSLRTCR03GPSAM_Denmark_Car_Registrations_MoM_car_registrations</t>
+          <t>GBRSLRTCR03GPSAM_United_Kingdom_Car_Registrations_MoM_car_registrations</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -1168,7 +1168,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>USASLRTCR03GPSAM_US_Car_Registrations_MoM_car_registrations</t>
+          <t>ESPSLRTCR03GPSAM_Spain_Car_Registrations_MoM_car_registrations</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -1180,79 +1180,79 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>ZAFSLRTCR03GPSAM_SouthAfrica_Car_Registrations_MoM_car_registrations</t>
+          <t>BUSLOANS_US_Commercial_Loans_comm_loans</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>car_registrations</t>
+          <t>comm_loans</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>GBRSLRTCR03GPSAM_United_Kingdom_Car_Registrations_MoM_car_registrations</t>
+          <t>CREACBM027NBOG_US_RealEstate_Commercial_Loans_comm_loans</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>car_registrations</t>
+          <t>economics</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>ESPSLRTCR03GPSAM_Spain_Car_Registrations_MoM_car_registrations</t>
+          <t>TOTALSL_US_Consumer_Credit_comm_loans</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>car_registrations</t>
+          <t>comm_loans</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>BUSLOANS_US_Commercial_Loans_comm_loans</t>
+          <t>CSCICP02EZM460S_EuroZone_Consumer_Confidence_consumer_confidence</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>comm_loans</t>
+          <t>economics</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>CREACBM027NBOG_US_RealEstate_Commercial_Loans_comm_loans</t>
+          <t>CSCICP02CHQ460S_Switzerland_Consumer_Confidence_consumer_confidence</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>economics</t>
+          <t>consumer_confidence</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>TOTALSL_US_Consumer_Credit_comm_loans</t>
+          <t>UMCSENT_Michigan_Consumer_Sentiment_consumer_confidence</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>comm_loans</t>
+          <t>consumer_confidence</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>CSCICP02EZM460S_EuroZone_Consumer_Confidence_consumer_confidence</t>
+          <t>CPIAUCSL_US_CPI_economics</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -1264,31 +1264,31 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>CSCICP02CHQ460S_Switzerland_Consumer_Confidence_consumer_confidence</t>
+          <t>CPILFESL_US_Core_CPI_economics</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>consumer_confidence</t>
+          <t>economics</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>UMCSENT_Michigan_Consumer_Sentiment_consumer_confidence</t>
+          <t>PCE_US_PCE_economics</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>consumer_confidence</t>
+          <t>economics</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>CPIAUCSL_US_CPI_economics</t>
+          <t>PCEPILFE_US_Core_PCE_economics</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -1300,7 +1300,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>CPILFESL_US_Core_CPI_economics</t>
+          <t>PPIACO_US_PPI_economics</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -1312,7 +1312,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>PCE_US_PCE_economics</t>
+          <t>INDPRO_US_Industrial_Production_MoM_economics</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -1324,7 +1324,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>PCEPILFE_US_Core_PCE_economics</t>
+          <t>CSUSHPINSA_US_CaseShiller_HomePrice_economics</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -1336,7 +1336,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>PPIACO_US_PPI_economics</t>
+          <t>GDP_US_GDP_Growth_economics</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -1348,7 +1348,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>INDPRO_US_Industrial_Production_MoM_economics</t>
+          <t>TCU_US_Capacity_Utilization_economics</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -1360,7 +1360,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>CSUSHPINSA_US_CaseShiller_HomePrice_economics</t>
+          <t>PERMIT_US_Building_Permits_economics</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -1372,7 +1372,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>GDP_US_GDP_Growth_economics</t>
+          <t>HOUST_US_Housing_Starts_economics</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -1384,7 +1384,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>TCU_US_Capacity_Utilization_economics</t>
+          <t>FEDFUNDS_US_FedFunds_Rate_economics</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -1396,7 +1396,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>PERMIT_US_Building_Permits_economics</t>
+          <t>ECBDFR_ECB_Deposit_Rate_economics</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -1408,7 +1408,7 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>HOUST_US_Housing_Starts_economics</t>
+          <t>WALCL_Fed_Balance_Sheet_economics</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -1420,94 +1420,46 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>FEDFUNDS_US_FedFunds_Rate_economics</t>
+          <t>DTWEXBGS_Dollar_Index_DXY_index_pricing</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>economics</t>
+          <t>index_pricing</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>ECBDFR_ECB_Deposit_Rate_economics</t>
+          <t>UNRATE_US_Unemployment_Rate_unemployment_rate</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>economics</t>
+          <t>unemployment_rate</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>WALCL_Fed_Balance_Sheet_economics</t>
+          <t>PAYEMS_US_Nonfarm_Payrolls_unemployment_rate</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>economics</t>
+          <t>unemployment_rate</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Price_Dollar_Index_DXY_index_pricing</t>
+          <t>ICSA_US_Initial_Jobless_Claims_unemployment_rate</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
-        <is>
-          <t>index_pricing</t>
-        </is>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="inlineStr">
-        <is>
-          <t>PRICE_US_Unemployment_Rate_unemployment_rate</t>
-        </is>
-      </c>
-      <c r="B87" t="inlineStr">
-        <is>
-          <t>unemployment_rate</t>
-        </is>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="inlineStr">
-        <is>
-          <t>PRICE_US_Nonfarm_Payrolls_unemployment_rate</t>
-        </is>
-      </c>
-      <c r="B88" t="inlineStr">
-        <is>
-          <t>unemployment_rate</t>
-        </is>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="inlineStr">
-        <is>
-          <t>PRICE_US_Initial_Jobless_Claims_unemployment_rate</t>
-        </is>
-      </c>
-      <c r="B89" t="inlineStr">
-        <is>
-          <t>unemployment_rate</t>
-        </is>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="inlineStr">
-        <is>
-          <t>PRICE_US_JOLTS_unemployment_rate</t>
-        </is>
-      </c>
-      <c r="B90" t="inlineStr">
         <is>
           <t>unemployment_rate</t>
         </is>

--- a/Data/1_preprocess/DIAGNOSTICO_CATEGORIAS.xlsx
+++ b/Data/1_preprocess/DIAGNOSTICO_CATEGORIAS.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="122">
   <si>
     <t>Columna</t>
   </si>
@@ -127,51 +127,6 @@
     <t>PRICE_Nickel_Futures_commodities</t>
   </si>
   <si>
-    <t>PRICE_US_Cotton_#2_Futures_commodities</t>
-  </si>
-  <si>
-    <t>PRICE_Lumber_Futures_commodities</t>
-  </si>
-  <si>
-    <t>PRICE_US_Cocoa_Futures_commodities</t>
-  </si>
-  <si>
-    <t>PRICE_US_Coffee_C_Futures_commodities</t>
-  </si>
-  <si>
-    <t>PRICE_Orange_Juice_Futures_commodities</t>
-  </si>
-  <si>
-    <t>PRICE_US_Sugar_commodities</t>
-  </si>
-  <si>
-    <t>PRICE_US_Corn_Futures_commodities</t>
-  </si>
-  <si>
-    <t>PRICE_US_Wheat_Futures_commodities</t>
-  </si>
-  <si>
-    <t>PRICE_Oats_Futures_commodities</t>
-  </si>
-  <si>
-    <t>PRICE_Rough_Rice_Futures_commodities</t>
-  </si>
-  <si>
-    <t>PRICE_US_Soybean_Meal_Futures_commodities</t>
-  </si>
-  <si>
-    <t>PRICE_US_Soybean_Oil_Futures_commodities</t>
-  </si>
-  <si>
-    <t>PRICE_US_Soybeans_Futures_commodities</t>
-  </si>
-  <si>
-    <t>PRICE_Feeder_Cattle_Futures_commodities</t>
-  </si>
-  <si>
-    <t>PRICE_Live_Cattle_Futures_commodities</t>
-  </si>
-  <si>
     <t>PRICE_Iron_ore_fines_62%_Fe_CFR_Futures_commodities</t>
   </si>
   <si>
@@ -199,6 +154,15 @@
     <t>PRICE_PHP_ZAR_exchange_rate</t>
   </si>
   <si>
+    <t>PRICE_USDCOP-US_Dollar_Colombian_Peso_exchange_rate</t>
+  </si>
+  <si>
+    <t>PRICE_Colombia_5_Year_Bond_bond</t>
+  </si>
+  <si>
+    <t>PRICE_Colombia_10_Year_Bond_bond</t>
+  </si>
+  <si>
     <t>ESI_GACDISA_US_Empire_State_Index_business_confidence</t>
   </si>
   <si>
@@ -271,6 +235,12 @@
     <t>Actual_Eurozone_Unemployment_Rate_unemployment_rate</t>
   </si>
   <si>
+    <t>Actual_IPC Colombia_economics</t>
+  </si>
+  <si>
+    <t>Actual_IPC EEUU_economics</t>
+  </si>
+  <si>
     <t>DGS10_US_10Y_Treasury_bond</t>
   </si>
   <si>
@@ -371,6 +341,9 @@
   </si>
   <si>
     <t>ICSA_US_Initial_Jobless_Claims_unemployment_rate</t>
+  </si>
+  <si>
+    <t>DGS10_DGS10_bond</t>
   </si>
   <si>
     <t>Sin categoría</t>
@@ -764,7 +737,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B118"/>
+  <dimension ref="A1:B109"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -783,7 +756,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -791,7 +764,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -799,7 +772,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -807,7 +780,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -815,7 +788,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -823,7 +796,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -831,7 +804,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -839,7 +812,7 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -847,7 +820,7 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -855,7 +828,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -863,7 +836,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -871,7 +844,7 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -879,7 +852,7 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -887,7 +860,7 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -895,7 +868,7 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -903,7 +876,7 @@
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -911,7 +884,7 @@
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -919,7 +892,7 @@
         <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -927,7 +900,7 @@
         <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -935,7 +908,7 @@
         <v>21</v>
       </c>
       <c r="B21" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -943,7 +916,7 @@
         <v>22</v>
       </c>
       <c r="B22" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -951,7 +924,7 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -959,7 +932,7 @@
         <v>24</v>
       </c>
       <c r="B24" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -967,7 +940,7 @@
         <v>25</v>
       </c>
       <c r="B25" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -975,7 +948,7 @@
         <v>26</v>
       </c>
       <c r="B26" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -983,7 +956,7 @@
         <v>27</v>
       </c>
       <c r="B27" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -991,7 +964,7 @@
         <v>28</v>
       </c>
       <c r="B28" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -999,7 +972,7 @@
         <v>29</v>
       </c>
       <c r="B29" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -1007,7 +980,7 @@
         <v>30</v>
       </c>
       <c r="B30" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -1015,7 +988,7 @@
         <v>31</v>
       </c>
       <c r="B31" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -1023,7 +996,7 @@
         <v>32</v>
       </c>
       <c r="B32" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -1031,7 +1004,7 @@
         <v>33</v>
       </c>
       <c r="B33" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -1039,7 +1012,7 @@
         <v>34</v>
       </c>
       <c r="B34" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -1047,7 +1020,7 @@
         <v>35</v>
       </c>
       <c r="B35" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -1055,7 +1028,7 @@
         <v>36</v>
       </c>
       <c r="B36" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -1063,7 +1036,7 @@
         <v>37</v>
       </c>
       <c r="B37" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -1071,7 +1044,7 @@
         <v>38</v>
       </c>
       <c r="B38" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -1079,7 +1052,7 @@
         <v>39</v>
       </c>
       <c r="B39" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -1087,7 +1060,7 @@
         <v>40</v>
       </c>
       <c r="B40" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -1095,7 +1068,7 @@
         <v>41</v>
       </c>
       <c r="B41" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -1103,7 +1076,7 @@
         <v>42</v>
       </c>
       <c r="B42" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -1111,7 +1084,7 @@
         <v>43</v>
       </c>
       <c r="B43" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -1119,7 +1092,7 @@
         <v>44</v>
       </c>
       <c r="B44" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -1127,7 +1100,7 @@
         <v>45</v>
       </c>
       <c r="B45" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -1135,7 +1108,7 @@
         <v>46</v>
       </c>
       <c r="B46" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -1143,7 +1116,7 @@
         <v>47</v>
       </c>
       <c r="B47" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -1151,7 +1124,7 @@
         <v>48</v>
       </c>
       <c r="B48" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -1159,7 +1132,7 @@
         <v>49</v>
       </c>
       <c r="B49" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -1167,7 +1140,7 @@
         <v>50</v>
       </c>
       <c r="B50" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -1175,7 +1148,7 @@
         <v>51</v>
       </c>
       <c r="B51" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -1183,7 +1156,7 @@
         <v>52</v>
       </c>
       <c r="B52" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -1191,7 +1164,7 @@
         <v>53</v>
       </c>
       <c r="B53" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -1199,7 +1172,7 @@
         <v>54</v>
       </c>
       <c r="B54" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -1207,7 +1180,7 @@
         <v>55</v>
       </c>
       <c r="B55" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -1215,7 +1188,7 @@
         <v>56</v>
       </c>
       <c r="B56" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -1223,7 +1196,7 @@
         <v>57</v>
       </c>
       <c r="B57" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -1231,7 +1204,7 @@
         <v>58</v>
       </c>
       <c r="B58" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -1239,7 +1212,7 @@
         <v>59</v>
       </c>
       <c r="B59" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -1247,7 +1220,7 @@
         <v>60</v>
       </c>
       <c r="B60" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -1255,7 +1228,7 @@
         <v>61</v>
       </c>
       <c r="B61" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -1263,7 +1236,7 @@
         <v>62</v>
       </c>
       <c r="B62" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -1271,7 +1244,7 @@
         <v>63</v>
       </c>
       <c r="B63" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -1279,7 +1252,7 @@
         <v>64</v>
       </c>
       <c r="B64" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -1287,7 +1260,7 @@
         <v>65</v>
       </c>
       <c r="B65" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -1295,7 +1268,7 @@
         <v>66</v>
       </c>
       <c r="B66" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -1303,7 +1276,7 @@
         <v>67</v>
       </c>
       <c r="B67" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -1311,7 +1284,7 @@
         <v>68</v>
       </c>
       <c r="B68" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -1319,7 +1292,7 @@
         <v>69</v>
       </c>
       <c r="B69" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -1327,7 +1300,7 @@
         <v>70</v>
       </c>
       <c r="B70" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -1335,7 +1308,7 @@
         <v>71</v>
       </c>
       <c r="B71" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -1343,7 +1316,7 @@
         <v>72</v>
       </c>
       <c r="B72" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -1351,7 +1324,7 @@
         <v>73</v>
       </c>
       <c r="B73" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -1359,7 +1332,7 @@
         <v>74</v>
       </c>
       <c r="B74" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -1367,7 +1340,7 @@
         <v>75</v>
       </c>
       <c r="B75" t="s">
-        <v>125</v>
+        <v>111</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -1375,7 +1348,7 @@
         <v>76</v>
       </c>
       <c r="B76" t="s">
-        <v>125</v>
+        <v>111</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -1383,7 +1356,7 @@
         <v>77</v>
       </c>
       <c r="B77" t="s">
-        <v>125</v>
+        <v>111</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -1391,7 +1364,7 @@
         <v>78</v>
       </c>
       <c r="B78" t="s">
-        <v>125</v>
+        <v>111</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -1399,7 +1372,7 @@
         <v>79</v>
       </c>
       <c r="B79" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -1407,7 +1380,7 @@
         <v>80</v>
       </c>
       <c r="B80" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -1415,7 +1388,7 @@
         <v>81</v>
       </c>
       <c r="B81" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -1423,7 +1396,7 @@
         <v>82</v>
       </c>
       <c r="B82" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -1431,7 +1404,7 @@
         <v>83</v>
       </c>
       <c r="B83" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -1439,7 +1412,7 @@
         <v>84</v>
       </c>
       <c r="B84" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -1447,7 +1420,7 @@
         <v>85</v>
       </c>
       <c r="B85" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -1455,7 +1428,7 @@
         <v>86</v>
       </c>
       <c r="B86" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
     </row>
     <row r="87" spans="1:2">
@@ -1463,7 +1436,7 @@
         <v>87</v>
       </c>
       <c r="B87" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="88" spans="1:2">
@@ -1471,7 +1444,7 @@
         <v>88</v>
       </c>
       <c r="B88" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
     </row>
     <row r="89" spans="1:2">
@@ -1479,7 +1452,7 @@
         <v>89</v>
       </c>
       <c r="B89" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -1487,7 +1460,7 @@
         <v>90</v>
       </c>
       <c r="B90" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
     </row>
     <row r="91" spans="1:2">
@@ -1495,7 +1468,7 @@
         <v>91</v>
       </c>
       <c r="B91" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
     </row>
     <row r="92" spans="1:2">
@@ -1503,7 +1476,7 @@
         <v>92</v>
       </c>
       <c r="B92" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
     </row>
     <row r="93" spans="1:2">
@@ -1511,7 +1484,7 @@
         <v>93</v>
       </c>
       <c r="B93" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
     </row>
     <row r="94" spans="1:2">
@@ -1519,7 +1492,7 @@
         <v>94</v>
       </c>
       <c r="B94" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
     </row>
     <row r="95" spans="1:2">
@@ -1527,7 +1500,7 @@
         <v>95</v>
       </c>
       <c r="B95" t="s">
-        <v>130</v>
+        <v>116</v>
       </c>
     </row>
     <row r="96" spans="1:2">
@@ -1535,7 +1508,7 @@
         <v>96</v>
       </c>
       <c r="B96" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
     </row>
     <row r="97" spans="1:2">
@@ -1543,7 +1516,7 @@
         <v>97</v>
       </c>
       <c r="B97" t="s">
-        <v>130</v>
+        <v>116</v>
       </c>
     </row>
     <row r="98" spans="1:2">
@@ -1551,7 +1524,7 @@
         <v>98</v>
       </c>
       <c r="B98" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
     </row>
     <row r="99" spans="1:2">
@@ -1559,7 +1532,7 @@
         <v>99</v>
       </c>
       <c r="B99" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
     </row>
     <row r="100" spans="1:2">
@@ -1567,7 +1540,7 @@
         <v>100</v>
       </c>
       <c r="B100" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
     </row>
     <row r="101" spans="1:2">
@@ -1575,7 +1548,7 @@
         <v>101</v>
       </c>
       <c r="B101" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
     </row>
     <row r="102" spans="1:2">
@@ -1583,7 +1556,7 @@
         <v>102</v>
       </c>
       <c r="B102" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
     </row>
     <row r="103" spans="1:2">
@@ -1591,7 +1564,7 @@
         <v>103</v>
       </c>
       <c r="B103" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
     </row>
     <row r="104" spans="1:2">
@@ -1599,7 +1572,7 @@
         <v>104</v>
       </c>
       <c r="B104" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
     </row>
     <row r="105" spans="1:2">
@@ -1607,7 +1580,7 @@
         <v>105</v>
       </c>
       <c r="B105" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
     </row>
     <row r="106" spans="1:2">
@@ -1615,7 +1588,7 @@
         <v>106</v>
       </c>
       <c r="B106" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
     </row>
     <row r="107" spans="1:2">
@@ -1623,7 +1596,7 @@
         <v>107</v>
       </c>
       <c r="B107" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
     </row>
     <row r="108" spans="1:2">
@@ -1631,7 +1604,7 @@
         <v>108</v>
       </c>
       <c r="B108" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
     </row>
     <row r="109" spans="1:2">
@@ -1639,79 +1612,7 @@
         <v>109</v>
       </c>
       <c r="B109" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="110" spans="1:2">
-      <c r="A110" t="s">
-        <v>110</v>
-      </c>
-      <c r="B110" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="111" spans="1:2">
-      <c r="A111" t="s">
         <v>111</v>
-      </c>
-      <c r="B111" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="112" spans="1:2">
-      <c r="A112" t="s">
-        <v>112</v>
-      </c>
-      <c r="B112" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="113" spans="1:2">
-      <c r="A113" t="s">
-        <v>113</v>
-      </c>
-      <c r="B113" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="114" spans="1:2">
-      <c r="A114" t="s">
-        <v>114</v>
-      </c>
-      <c r="B114" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="115" spans="1:2">
-      <c r="A115" t="s">
-        <v>115</v>
-      </c>
-      <c r="B115" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="116" spans="1:2">
-      <c r="A116" t="s">
-        <v>116</v>
-      </c>
-      <c r="B116" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="117" spans="1:2">
-      <c r="A117" t="s">
-        <v>117</v>
-      </c>
-      <c r="B117" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="118" spans="1:2">
-      <c r="A118" t="s">
-        <v>118</v>
-      </c>
-      <c r="B118" t="s">
-        <v>129</v>
       </c>
     </row>
   </sheetData>

--- a/Data/1_preprocess/DIAGNOSTICO_CATEGORIAS.xlsx
+++ b/Data/1_preprocess/DIAGNOSTICO_CATEGORIAS.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="127">
   <si>
     <t>Columna</t>
   </si>
@@ -25,6 +25,21 @@
     <t>fecha</t>
   </si>
   <si>
+    <t>Reservas_internacionales_brutasDato_fin_de_mes_Brute_Internacional_Reservoir_economics</t>
+  </si>
+  <si>
+    <t>Tasa_de_política_monetariaDato_diario_TPS_economics</t>
+  </si>
+  <si>
+    <t>Índice_de_la_tasa_de_cambio_real_ITCR_según_IPP__B_ITCR_PP_exchange_rate</t>
+  </si>
+  <si>
+    <t>Índice_de_precios_de_exportaciones_según_ippDato_f_Indice_Intercambios_IPP_index_pricing</t>
+  </si>
+  <si>
+    <t>Índice_COLCAPDato_diario_Índice_COLCAP_index_pricing</t>
+  </si>
+  <si>
     <t>PRICE_Australia_10Y_Bond_bond</t>
   </si>
   <si>
@@ -349,31 +364,31 @@
     <t>Sin categoría</t>
   </si>
   <si>
+    <t>economics</t>
+  </si>
+  <si>
+    <t>exchange_rate</t>
+  </si>
+  <si>
+    <t>exports</t>
+  </si>
+  <si>
+    <t>index_pricing</t>
+  </si>
+  <si>
     <t>bond</t>
   </si>
   <si>
     <t>commodities</t>
   </si>
   <si>
-    <t>exchange_rate</t>
-  </si>
-  <si>
-    <t>index_pricing</t>
-  </si>
-  <si>
     <t>business_confidence</t>
   </si>
   <si>
-    <t>economics</t>
-  </si>
-  <si>
     <t>car_registrations</t>
   </si>
   <si>
     <t>consumer_confidence</t>
-  </si>
-  <si>
-    <t>exports</t>
   </si>
   <si>
     <t>unemployment_rate</t>
@@ -737,7 +752,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B109"/>
+  <dimension ref="A1:B114"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -756,7 +771,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -764,7 +779,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -772,7 +787,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -780,7 +795,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -788,7 +803,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -796,7 +811,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -804,7 +819,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -812,7 +827,7 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -820,7 +835,7 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -828,7 +843,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -836,7 +851,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -844,7 +859,7 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -852,7 +867,7 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -860,7 +875,7 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -868,7 +883,7 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -876,7 +891,7 @@
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -884,7 +899,7 @@
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -892,7 +907,7 @@
         <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -900,7 +915,7 @@
         <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -908,7 +923,7 @@
         <v>21</v>
       </c>
       <c r="B21" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -916,7 +931,7 @@
         <v>22</v>
       </c>
       <c r="B22" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -924,7 +939,7 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -932,7 +947,7 @@
         <v>24</v>
       </c>
       <c r="B24" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -940,7 +955,7 @@
         <v>25</v>
       </c>
       <c r="B25" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -948,7 +963,7 @@
         <v>26</v>
       </c>
       <c r="B26" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -956,7 +971,7 @@
         <v>27</v>
       </c>
       <c r="B27" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -964,7 +979,7 @@
         <v>28</v>
       </c>
       <c r="B28" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -972,7 +987,7 @@
         <v>29</v>
       </c>
       <c r="B29" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -980,7 +995,7 @@
         <v>30</v>
       </c>
       <c r="B30" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -988,7 +1003,7 @@
         <v>31</v>
       </c>
       <c r="B31" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -996,7 +1011,7 @@
         <v>32</v>
       </c>
       <c r="B32" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -1004,7 +1019,7 @@
         <v>33</v>
       </c>
       <c r="B33" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -1012,7 +1027,7 @@
         <v>34</v>
       </c>
       <c r="B34" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -1020,7 +1035,7 @@
         <v>35</v>
       </c>
       <c r="B35" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -1028,7 +1043,7 @@
         <v>36</v>
       </c>
       <c r="B36" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -1036,7 +1051,7 @@
         <v>37</v>
       </c>
       <c r="B37" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -1044,7 +1059,7 @@
         <v>38</v>
       </c>
       <c r="B38" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -1052,7 +1067,7 @@
         <v>39</v>
       </c>
       <c r="B39" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -1060,7 +1075,7 @@
         <v>40</v>
       </c>
       <c r="B40" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -1068,7 +1083,7 @@
         <v>41</v>
       </c>
       <c r="B41" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -1076,7 +1091,7 @@
         <v>42</v>
       </c>
       <c r="B42" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -1084,7 +1099,7 @@
         <v>43</v>
       </c>
       <c r="B43" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -1092,7 +1107,7 @@
         <v>44</v>
       </c>
       <c r="B44" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -1100,7 +1115,7 @@
         <v>45</v>
       </c>
       <c r="B45" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -1108,7 +1123,7 @@
         <v>46</v>
       </c>
       <c r="B46" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -1116,7 +1131,7 @@
         <v>47</v>
       </c>
       <c r="B47" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -1124,7 +1139,7 @@
         <v>48</v>
       </c>
       <c r="B48" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -1132,7 +1147,7 @@
         <v>49</v>
       </c>
       <c r="B49" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -1140,7 +1155,7 @@
         <v>50</v>
       </c>
       <c r="B50" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -1148,7 +1163,7 @@
         <v>51</v>
       </c>
       <c r="B51" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -1156,7 +1171,7 @@
         <v>52</v>
       </c>
       <c r="B52" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -1164,7 +1179,7 @@
         <v>53</v>
       </c>
       <c r="B53" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -1172,7 +1187,7 @@
         <v>54</v>
       </c>
       <c r="B54" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -1180,7 +1195,7 @@
         <v>55</v>
       </c>
       <c r="B55" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -1188,7 +1203,7 @@
         <v>56</v>
       </c>
       <c r="B56" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -1196,7 +1211,7 @@
         <v>57</v>
       </c>
       <c r="B57" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -1204,7 +1219,7 @@
         <v>58</v>
       </c>
       <c r="B58" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -1212,7 +1227,7 @@
         <v>59</v>
       </c>
       <c r="B59" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -1220,7 +1235,7 @@
         <v>60</v>
       </c>
       <c r="B60" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -1228,7 +1243,7 @@
         <v>61</v>
       </c>
       <c r="B61" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -1236,7 +1251,7 @@
         <v>62</v>
       </c>
       <c r="B62" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -1244,7 +1259,7 @@
         <v>63</v>
       </c>
       <c r="B63" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -1252,7 +1267,7 @@
         <v>64</v>
       </c>
       <c r="B64" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -1268,7 +1283,7 @@
         <v>66</v>
       </c>
       <c r="B66" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -1276,7 +1291,7 @@
         <v>67</v>
       </c>
       <c r="B67" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -1284,7 +1299,7 @@
         <v>68</v>
       </c>
       <c r="B68" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -1308,7 +1323,7 @@
         <v>71</v>
       </c>
       <c r="B71" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -1316,7 +1331,7 @@
         <v>72</v>
       </c>
       <c r="B72" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -1324,7 +1339,7 @@
         <v>73</v>
       </c>
       <c r="B73" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -1340,7 +1355,7 @@
         <v>75</v>
       </c>
       <c r="B75" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -1348,7 +1363,7 @@
         <v>76</v>
       </c>
       <c r="B76" t="s">
-        <v>111</v>
+        <v>125</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -1356,7 +1371,7 @@
         <v>77</v>
       </c>
       <c r="B77" t="s">
-        <v>111</v>
+        <v>125</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -1364,7 +1379,7 @@
         <v>78</v>
       </c>
       <c r="B78" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -1380,7 +1395,7 @@
         <v>80</v>
       </c>
       <c r="B80" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -1388,7 +1403,7 @@
         <v>81</v>
       </c>
       <c r="B81" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -1396,7 +1411,7 @@
         <v>82</v>
       </c>
       <c r="B82" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -1404,7 +1419,7 @@
         <v>83</v>
       </c>
       <c r="B83" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -1412,7 +1427,7 @@
         <v>84</v>
       </c>
       <c r="B84" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -1420,7 +1435,7 @@
         <v>85</v>
       </c>
       <c r="B85" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -1428,7 +1443,7 @@
         <v>86</v>
       </c>
       <c r="B86" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
     </row>
     <row r="87" spans="1:2">
@@ -1436,7 +1451,7 @@
         <v>87</v>
       </c>
       <c r="B87" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="88" spans="1:2">
@@ -1444,7 +1459,7 @@
         <v>88</v>
       </c>
       <c r="B88" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
     </row>
     <row r="89" spans="1:2">
@@ -1452,7 +1467,7 @@
         <v>89</v>
       </c>
       <c r="B89" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -1460,7 +1475,7 @@
         <v>90</v>
       </c>
       <c r="B90" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
     </row>
     <row r="91" spans="1:2">
@@ -1476,7 +1491,7 @@
         <v>92</v>
       </c>
       <c r="B92" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
     </row>
     <row r="93" spans="1:2">
@@ -1492,7 +1507,7 @@
         <v>94</v>
       </c>
       <c r="B94" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
     </row>
     <row r="95" spans="1:2">
@@ -1500,7 +1515,7 @@
         <v>95</v>
       </c>
       <c r="B95" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
     </row>
     <row r="96" spans="1:2">
@@ -1580,7 +1595,7 @@
         <v>105</v>
       </c>
       <c r="B105" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="106" spans="1:2">
@@ -1588,7 +1603,7 @@
         <v>106</v>
       </c>
       <c r="B106" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
     </row>
     <row r="107" spans="1:2">
@@ -1596,7 +1611,7 @@
         <v>107</v>
       </c>
       <c r="B107" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
     </row>
     <row r="108" spans="1:2">
@@ -1604,7 +1619,7 @@
         <v>108</v>
       </c>
       <c r="B108" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
     </row>
     <row r="109" spans="1:2">
@@ -1612,7 +1627,47 @@
         <v>109</v>
       </c>
       <c r="B109" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2">
+      <c r="A110" t="s">
+        <v>110</v>
+      </c>
+      <c r="B110" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2">
+      <c r="A111" t="s">
         <v>111</v>
+      </c>
+      <c r="B111" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2">
+      <c r="A112" t="s">
+        <v>112</v>
+      </c>
+      <c r="B112" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2">
+      <c r="A113" t="s">
+        <v>113</v>
+      </c>
+      <c r="B113" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2">
+      <c r="A114" t="s">
+        <v>114</v>
+      </c>
+      <c r="B114" t="s">
+        <v>120</v>
       </c>
     </row>
   </sheetData>

--- a/Data/1_preprocess/DIAGNOSTICO_CATEGORIAS.xlsx
+++ b/Data/1_preprocess/DIAGNOSTICO_CATEGORIAS.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="144">
   <si>
     <t>Columna</t>
   </si>
@@ -25,6 +25,9 @@
     <t>fecha</t>
   </si>
   <si>
+    <t>Saldo_de_la_deuda_externa_total_porcentaje_del_PIB_Deuda externa (pública y privada)_bond</t>
+  </si>
+  <si>
     <t>Reservas_internacionales_brutasDato_fin_de_mes_Brute_Internacional_Reservoir_economics</t>
   </si>
   <si>
@@ -40,6 +43,9 @@
     <t>Índice_COLCAPDato_diario_Índice_COLCAP_index_pricing</t>
   </si>
   <si>
+    <t>Total_Exportaciones_Tradicionales_anex-EXPORTACIONES-SerieCafeCarbonPetroleoNotradicionales-mar2025_exports</t>
+  </si>
+  <si>
     <t>PRICE_Australia_10Y_Bond_bond</t>
   </si>
   <si>
@@ -184,12 +190,57 @@
     <t>ESI_AWCDISA_US_Empire_State_Index_business_confidence</t>
   </si>
   <si>
+    <t>Put_strike_Put_Call_Ratio_SPY_consumer_confidence</t>
+  </si>
+  <si>
+    <t>Put_bid_Put_Call_Ratio_SPY_consumer_confidence</t>
+  </si>
+  <si>
+    <t>Put_ask_Put_Call_Ratio_SPY_consumer_confidence</t>
+  </si>
+  <si>
+    <t>Put_vol_Put_Call_Ratio_SPY_consumer_confidence</t>
+  </si>
+  <si>
+    <t>Put_delta_Put_Call_Ratio_SPY_consumer_confidence</t>
+  </si>
+  <si>
+    <t>Put_gamma_Put_Call_Ratio_SPY_consumer_confidence</t>
+  </si>
+  <si>
+    <t>Put_theta_Put_Call_Ratio_SPY_consumer_confidence</t>
+  </si>
+  <si>
+    <t>Put_vega_Put_Call_Ratio_SPY_consumer_confidence</t>
+  </si>
+  <si>
+    <t>Put_rho_Put_Call_Ratio_SPY_consumer_confidence</t>
+  </si>
+  <si>
     <t>NFCI_Chicago_Fed_NFCI_leading_economic_index</t>
   </si>
   <si>
     <t>ANFCI_Chicago_Fed_NFCI_leading_economic_index</t>
   </si>
   <si>
+    <t>TasasTES_Tasa de interés Cero Cupón, Títulos de Tesorería (TES), pesos - 1 año_TasasTES_Bond_bond</t>
+  </si>
+  <si>
+    <t>TasasTES_Tasa de interés Cero Cupón, Títulos de Tesorería (TES), pesos - 5 años_TasasTES_Bond_bond</t>
+  </si>
+  <si>
+    <t>TasasTES_Tasa de interés Cero Cupón, Títulos de Tesorería (TES), pesos - 10 años_TasasTES_Bond_bond</t>
+  </si>
+  <si>
+    <t>TasasTES_Tasa de interés Cero Cupón, Títulos de Tesorería (TES), UVR - 1 año_TasasTES_Bond_bond</t>
+  </si>
+  <si>
+    <t>TasasTES_Tasa de interés Cero Cupón, Títulos de Tesorería (TES), UVR - 5 años_TasasTES_Bond_bond</t>
+  </si>
+  <si>
+    <t>TasasTES_Tasa de interés Cero Cupón, Títulos de Tesorería (TES), UVR - 10 años_TasasTES_Bond_bond</t>
+  </si>
+  <si>
     <t>Actual_US_ISM_Manufacturing_business_confidence</t>
   </si>
   <si>
@@ -364,6 +415,9 @@
     <t>Sin categoría</t>
   </si>
   <si>
+    <t>bond</t>
+  </si>
+  <si>
     <t>economics</t>
   </si>
   <si>
@@ -376,19 +430,16 @@
     <t>index_pricing</t>
   </si>
   <si>
-    <t>bond</t>
-  </si>
-  <si>
     <t>commodities</t>
   </si>
   <si>
     <t>business_confidence</t>
   </si>
   <si>
+    <t>consumer_confidence</t>
+  </si>
+  <si>
     <t>car_registrations</t>
-  </si>
-  <si>
-    <t>consumer_confidence</t>
   </si>
   <si>
     <t>unemployment_rate</t>
@@ -752,7 +803,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B114"/>
+  <dimension ref="A1:B131"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -771,7 +822,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>115</v>
+        <v>132</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -779,7 +830,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>116</v>
+        <v>133</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -787,7 +838,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>116</v>
+        <v>134</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -795,7 +846,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>117</v>
+        <v>134</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -803,7 +854,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>118</v>
+        <v>135</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -811,7 +862,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>119</v>
+        <v>136</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -819,7 +870,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>120</v>
+        <v>137</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -827,7 +878,7 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>120</v>
+        <v>136</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -835,7 +886,7 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>120</v>
+        <v>133</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -843,7 +894,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>120</v>
+        <v>133</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -851,7 +902,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>120</v>
+        <v>133</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -859,7 +910,7 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>120</v>
+        <v>133</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -867,7 +918,7 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>120</v>
+        <v>133</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -875,7 +926,7 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>121</v>
+        <v>133</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -883,7 +934,7 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>121</v>
+        <v>133</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -891,7 +942,7 @@
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>121</v>
+        <v>138</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -899,7 +950,7 @@
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>121</v>
+        <v>138</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -907,7 +958,7 @@
         <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>121</v>
+        <v>138</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -915,7 +966,7 @@
         <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>117</v>
+        <v>138</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -923,7 +974,7 @@
         <v>21</v>
       </c>
       <c r="B21" t="s">
-        <v>117</v>
+        <v>138</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -931,7 +982,7 @@
         <v>22</v>
       </c>
       <c r="B22" t="s">
-        <v>117</v>
+        <v>135</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -939,7 +990,7 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>117</v>
+        <v>135</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -947,7 +998,7 @@
         <v>24</v>
       </c>
       <c r="B24" t="s">
-        <v>117</v>
+        <v>135</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -955,7 +1006,7 @@
         <v>25</v>
       </c>
       <c r="B25" t="s">
-        <v>117</v>
+        <v>135</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -963,7 +1014,7 @@
         <v>26</v>
       </c>
       <c r="B26" t="s">
-        <v>117</v>
+        <v>135</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -971,7 +1022,7 @@
         <v>27</v>
       </c>
       <c r="B27" t="s">
-        <v>117</v>
+        <v>135</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -979,7 +1030,7 @@
         <v>28</v>
       </c>
       <c r="B28" t="s">
-        <v>119</v>
+        <v>135</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -987,7 +1038,7 @@
         <v>29</v>
       </c>
       <c r="B29" t="s">
-        <v>119</v>
+        <v>135</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -995,7 +1046,7 @@
         <v>30</v>
       </c>
       <c r="B30" t="s">
-        <v>119</v>
+        <v>137</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -1003,7 +1054,7 @@
         <v>31</v>
       </c>
       <c r="B31" t="s">
-        <v>119</v>
+        <v>137</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -1011,7 +1062,7 @@
         <v>32</v>
       </c>
       <c r="B32" t="s">
-        <v>119</v>
+        <v>137</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -1019,7 +1070,7 @@
         <v>33</v>
       </c>
       <c r="B33" t="s">
-        <v>119</v>
+        <v>137</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -1027,7 +1078,7 @@
         <v>34</v>
       </c>
       <c r="B34" t="s">
-        <v>119</v>
+        <v>137</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -1035,7 +1086,7 @@
         <v>35</v>
       </c>
       <c r="B35" t="s">
-        <v>119</v>
+        <v>137</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -1043,7 +1094,7 @@
         <v>36</v>
       </c>
       <c r="B36" t="s">
-        <v>121</v>
+        <v>137</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -1051,7 +1102,7 @@
         <v>37</v>
       </c>
       <c r="B37" t="s">
-        <v>121</v>
+        <v>137</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -1059,7 +1110,7 @@
         <v>38</v>
       </c>
       <c r="B38" t="s">
-        <v>121</v>
+        <v>138</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -1067,7 +1118,7 @@
         <v>39</v>
       </c>
       <c r="B39" t="s">
-        <v>121</v>
+        <v>138</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -1075,7 +1126,7 @@
         <v>40</v>
       </c>
       <c r="B40" t="s">
-        <v>121</v>
+        <v>138</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -1083,7 +1134,7 @@
         <v>41</v>
       </c>
       <c r="B41" t="s">
-        <v>121</v>
+        <v>138</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -1091,7 +1142,7 @@
         <v>42</v>
       </c>
       <c r="B42" t="s">
-        <v>121</v>
+        <v>138</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -1099,7 +1150,7 @@
         <v>43</v>
       </c>
       <c r="B43" t="s">
-        <v>121</v>
+        <v>138</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -1107,7 +1158,7 @@
         <v>44</v>
       </c>
       <c r="B44" t="s">
-        <v>119</v>
+        <v>138</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -1115,7 +1166,7 @@
         <v>45</v>
       </c>
       <c r="B45" t="s">
-        <v>119</v>
+        <v>138</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -1123,7 +1174,7 @@
         <v>46</v>
       </c>
       <c r="B46" t="s">
-        <v>119</v>
+        <v>137</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -1131,7 +1182,7 @@
         <v>47</v>
       </c>
       <c r="B47" t="s">
-        <v>117</v>
+        <v>137</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -1139,7 +1190,7 @@
         <v>48</v>
       </c>
       <c r="B48" t="s">
-        <v>117</v>
+        <v>137</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -1147,7 +1198,7 @@
         <v>49</v>
       </c>
       <c r="B49" t="s">
-        <v>117</v>
+        <v>135</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -1155,7 +1206,7 @@
         <v>50</v>
       </c>
       <c r="B50" t="s">
-        <v>117</v>
+        <v>135</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -1163,7 +1214,7 @@
         <v>51</v>
       </c>
       <c r="B51" t="s">
-        <v>117</v>
+        <v>135</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -1171,7 +1222,7 @@
         <v>52</v>
       </c>
       <c r="B52" t="s">
-        <v>120</v>
+        <v>135</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -1179,7 +1230,7 @@
         <v>53</v>
       </c>
       <c r="B53" t="s">
-        <v>120</v>
+        <v>135</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -1187,7 +1238,7 @@
         <v>54</v>
       </c>
       <c r="B54" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -1195,7 +1246,7 @@
         <v>55</v>
       </c>
       <c r="B55" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -1203,7 +1254,7 @@
         <v>56</v>
       </c>
       <c r="B56" t="s">
-        <v>116</v>
+        <v>139</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -1211,7 +1262,7 @@
         <v>57</v>
       </c>
       <c r="B57" t="s">
-        <v>116</v>
+        <v>139</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -1219,7 +1270,7 @@
         <v>58</v>
       </c>
       <c r="B58" t="s">
-        <v>122</v>
+        <v>140</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -1227,7 +1278,7 @@
         <v>59</v>
       </c>
       <c r="B59" t="s">
-        <v>122</v>
+        <v>140</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -1235,7 +1286,7 @@
         <v>60</v>
       </c>
       <c r="B60" t="s">
-        <v>122</v>
+        <v>140</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -1243,7 +1294,7 @@
         <v>61</v>
       </c>
       <c r="B61" t="s">
-        <v>122</v>
+        <v>140</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -1251,7 +1302,7 @@
         <v>62</v>
       </c>
       <c r="B62" t="s">
-        <v>122</v>
+        <v>140</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -1259,7 +1310,7 @@
         <v>63</v>
       </c>
       <c r="B63" t="s">
-        <v>123</v>
+        <v>140</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -1267,7 +1318,7 @@
         <v>64</v>
       </c>
       <c r="B64" t="s">
-        <v>124</v>
+        <v>140</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -1275,7 +1326,7 @@
         <v>65</v>
       </c>
       <c r="B65" t="s">
-        <v>116</v>
+        <v>140</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -1283,7 +1334,7 @@
         <v>66</v>
       </c>
       <c r="B66" t="s">
-        <v>118</v>
+        <v>140</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -1291,7 +1342,7 @@
         <v>67</v>
       </c>
       <c r="B67" t="s">
-        <v>116</v>
+        <v>134</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -1299,7 +1350,7 @@
         <v>68</v>
       </c>
       <c r="B68" t="s">
-        <v>116</v>
+        <v>134</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -1307,7 +1358,7 @@
         <v>69</v>
       </c>
       <c r="B69" t="s">
-        <v>116</v>
+        <v>133</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -1315,7 +1366,7 @@
         <v>70</v>
       </c>
       <c r="B70" t="s">
-        <v>116</v>
+        <v>133</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -1323,7 +1374,7 @@
         <v>71</v>
       </c>
       <c r="B71" t="s">
-        <v>116</v>
+        <v>133</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -1331,7 +1382,7 @@
         <v>72</v>
       </c>
       <c r="B72" t="s">
-        <v>118</v>
+        <v>133</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -1339,7 +1390,7 @@
         <v>73</v>
       </c>
       <c r="B73" t="s">
-        <v>118</v>
+        <v>133</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -1347,7 +1398,7 @@
         <v>74</v>
       </c>
       <c r="B74" t="s">
-        <v>116</v>
+        <v>133</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -1355,7 +1406,7 @@
         <v>75</v>
       </c>
       <c r="B75" t="s">
-        <v>116</v>
+        <v>139</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -1363,7 +1414,7 @@
         <v>76</v>
       </c>
       <c r="B76" t="s">
-        <v>125</v>
+        <v>139</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -1371,7 +1422,7 @@
         <v>77</v>
       </c>
       <c r="B77" t="s">
-        <v>125</v>
+        <v>139</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -1379,7 +1430,7 @@
         <v>78</v>
       </c>
       <c r="B78" t="s">
-        <v>116</v>
+        <v>139</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -1387,7 +1438,7 @@
         <v>79</v>
       </c>
       <c r="B79" t="s">
-        <v>116</v>
+        <v>139</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -1395,7 +1446,7 @@
         <v>80</v>
       </c>
       <c r="B80" t="s">
-        <v>120</v>
+        <v>141</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -1403,7 +1454,7 @@
         <v>81</v>
       </c>
       <c r="B81" t="s">
-        <v>120</v>
+        <v>140</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -1411,7 +1462,7 @@
         <v>82</v>
       </c>
       <c r="B82" t="s">
-        <v>120</v>
+        <v>134</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -1419,7 +1470,7 @@
         <v>83</v>
       </c>
       <c r="B83" t="s">
-        <v>120</v>
+        <v>136</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -1427,7 +1478,7 @@
         <v>84</v>
       </c>
       <c r="B84" t="s">
-        <v>116</v>
+        <v>134</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -1435,7 +1486,7 @@
         <v>85</v>
       </c>
       <c r="B85" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -1443,7 +1494,7 @@
         <v>86</v>
       </c>
       <c r="B86" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
     </row>
     <row r="87" spans="1:2">
@@ -1451,7 +1502,7 @@
         <v>87</v>
       </c>
       <c r="B87" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
     </row>
     <row r="88" spans="1:2">
@@ -1459,7 +1510,7 @@
         <v>88</v>
       </c>
       <c r="B88" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
     </row>
     <row r="89" spans="1:2">
@@ -1467,7 +1518,7 @@
         <v>89</v>
       </c>
       <c r="B89" t="s">
-        <v>123</v>
+        <v>136</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -1475,7 +1526,7 @@
         <v>90</v>
       </c>
       <c r="B90" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
     </row>
     <row r="91" spans="1:2">
@@ -1483,7 +1534,7 @@
         <v>91</v>
       </c>
       <c r="B91" t="s">
-        <v>116</v>
+        <v>134</v>
       </c>
     </row>
     <row r="92" spans="1:2">
@@ -1491,7 +1542,7 @@
         <v>92</v>
       </c>
       <c r="B92" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
     </row>
     <row r="93" spans="1:2">
@@ -1499,7 +1550,7 @@
         <v>93</v>
       </c>
       <c r="B93" t="s">
-        <v>116</v>
+        <v>142</v>
       </c>
     </row>
     <row r="94" spans="1:2">
@@ -1507,7 +1558,7 @@
         <v>94</v>
       </c>
       <c r="B94" t="s">
-        <v>124</v>
+        <v>142</v>
       </c>
     </row>
     <row r="95" spans="1:2">
@@ -1515,7 +1566,7 @@
         <v>95</v>
       </c>
       <c r="B95" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
     </row>
     <row r="96" spans="1:2">
@@ -1523,7 +1574,7 @@
         <v>96</v>
       </c>
       <c r="B96" t="s">
-        <v>116</v>
+        <v>134</v>
       </c>
     </row>
     <row r="97" spans="1:2">
@@ -1531,7 +1582,7 @@
         <v>97</v>
       </c>
       <c r="B97" t="s">
-        <v>116</v>
+        <v>133</v>
       </c>
     </row>
     <row r="98" spans="1:2">
@@ -1539,7 +1590,7 @@
         <v>98</v>
       </c>
       <c r="B98" t="s">
-        <v>116</v>
+        <v>133</v>
       </c>
     </row>
     <row r="99" spans="1:2">
@@ -1547,7 +1598,7 @@
         <v>99</v>
       </c>
       <c r="B99" t="s">
-        <v>116</v>
+        <v>133</v>
       </c>
     </row>
     <row r="100" spans="1:2">
@@ -1555,7 +1606,7 @@
         <v>100</v>
       </c>
       <c r="B100" t="s">
-        <v>116</v>
+        <v>133</v>
       </c>
     </row>
     <row r="101" spans="1:2">
@@ -1563,7 +1614,7 @@
         <v>101</v>
       </c>
       <c r="B101" t="s">
-        <v>116</v>
+        <v>134</v>
       </c>
     </row>
     <row r="102" spans="1:2">
@@ -1571,7 +1622,7 @@
         <v>102</v>
       </c>
       <c r="B102" t="s">
-        <v>116</v>
+        <v>141</v>
       </c>
     </row>
     <row r="103" spans="1:2">
@@ -1579,7 +1630,7 @@
         <v>103</v>
       </c>
       <c r="B103" t="s">
-        <v>116</v>
+        <v>141</v>
       </c>
     </row>
     <row r="104" spans="1:2">
@@ -1587,7 +1638,7 @@
         <v>104</v>
       </c>
       <c r="B104" t="s">
-        <v>116</v>
+        <v>141</v>
       </c>
     </row>
     <row r="105" spans="1:2">
@@ -1595,7 +1646,7 @@
         <v>105</v>
       </c>
       <c r="B105" t="s">
-        <v>116</v>
+        <v>141</v>
       </c>
     </row>
     <row r="106" spans="1:2">
@@ -1603,7 +1654,7 @@
         <v>106</v>
       </c>
       <c r="B106" t="s">
-        <v>116</v>
+        <v>141</v>
       </c>
     </row>
     <row r="107" spans="1:2">
@@ -1611,7 +1662,7 @@
         <v>107</v>
       </c>
       <c r="B107" t="s">
-        <v>116</v>
+        <v>143</v>
       </c>
     </row>
     <row r="108" spans="1:2">
@@ -1619,7 +1670,7 @@
         <v>108</v>
       </c>
       <c r="B108" t="s">
-        <v>116</v>
+        <v>134</v>
       </c>
     </row>
     <row r="109" spans="1:2">
@@ -1627,7 +1678,7 @@
         <v>109</v>
       </c>
       <c r="B109" t="s">
-        <v>116</v>
+        <v>143</v>
       </c>
     </row>
     <row r="110" spans="1:2">
@@ -1635,7 +1686,7 @@
         <v>110</v>
       </c>
       <c r="B110" t="s">
-        <v>119</v>
+        <v>134</v>
       </c>
     </row>
     <row r="111" spans="1:2">
@@ -1643,7 +1694,7 @@
         <v>111</v>
       </c>
       <c r="B111" t="s">
-        <v>125</v>
+        <v>140</v>
       </c>
     </row>
     <row r="112" spans="1:2">
@@ -1651,7 +1702,7 @@
         <v>112</v>
       </c>
       <c r="B112" t="s">
-        <v>125</v>
+        <v>140</v>
       </c>
     </row>
     <row r="113" spans="1:2">
@@ -1659,7 +1710,7 @@
         <v>113</v>
       </c>
       <c r="B113" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
     </row>
     <row r="114" spans="1:2">
@@ -1667,7 +1718,143 @@
         <v>114</v>
       </c>
       <c r="B114" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2">
+      <c r="A115" t="s">
+        <v>115</v>
+      </c>
+      <c r="B115" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2">
+      <c r="A116" t="s">
+        <v>116</v>
+      </c>
+      <c r="B116" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2">
+      <c r="A117" t="s">
+        <v>117</v>
+      </c>
+      <c r="B117" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2">
+      <c r="A118" t="s">
+        <v>118</v>
+      </c>
+      <c r="B118" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2">
+      <c r="A119" t="s">
+        <v>119</v>
+      </c>
+      <c r="B119" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2">
+      <c r="A120" t="s">
         <v>120</v>
+      </c>
+      <c r="B120" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2">
+      <c r="A121" t="s">
+        <v>121</v>
+      </c>
+      <c r="B121" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2">
+      <c r="A122" t="s">
+        <v>122</v>
+      </c>
+      <c r="B122" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2">
+      <c r="A123" t="s">
+        <v>123</v>
+      </c>
+      <c r="B123" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2">
+      <c r="A124" t="s">
+        <v>124</v>
+      </c>
+      <c r="B124" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2">
+      <c r="A125" t="s">
+        <v>125</v>
+      </c>
+      <c r="B125" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2">
+      <c r="A126" t="s">
+        <v>126</v>
+      </c>
+      <c r="B126" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2">
+      <c r="A127" t="s">
+        <v>127</v>
+      </c>
+      <c r="B127" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2">
+      <c r="A128" t="s">
+        <v>128</v>
+      </c>
+      <c r="B128" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2">
+      <c r="A129" t="s">
+        <v>129</v>
+      </c>
+      <c r="B129" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2">
+      <c r="A130" t="s">
+        <v>130</v>
+      </c>
+      <c r="B130" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2">
+      <c r="A131" t="s">
+        <v>131</v>
+      </c>
+      <c r="B131" t="s">
+        <v>133</v>
       </c>
     </row>
   </sheetData>
